--- a/2024/top2000.xlsx
+++ b/2024/top2000.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marije/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bas/Code/Python/aivd/2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4EA0DE6-9B23-A34E-AF28-27DAB6CD1876}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{369AC4FB-CA22-1042-8CA3-B5BDABB5507E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28780" windowHeight="22640" xr2:uid="{ED8D6A4B-5A43-41FB-8F41-1E8E6BABFAA7}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="28780" windowHeight="17420" xr2:uid="{ED8D6A4B-5A43-41FB-8F41-1E8E6BABFAA7}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -8439,7 +8439,20 @@
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
     <cellStyle name="Standaard 2" xfId="1" xr:uid="{62DB5C95-6771-7B44-8559-79B87EEA228E}"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF606060"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -8786,7 +8799,7 @@
   <dimension ref="A1:D2001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="A1:D1"/>
+      <selection activeCell="B2" sqref="B2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -36825,26 +36838,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8b623939-84f8-4901-a345-0989bf357138">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="36cbcfc3-de88-4d71-8c48-8bd741d1975c" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002E48BACA67532943B9100C52BA778851" ma:contentTypeVersion="15" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="68000dffd737e7a164330e79f6f5746f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8b623939-84f8-4901-a345-0989bf357138" xmlns:ns3="36cbcfc3-de88-4d71-8c48-8bd741d1975c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6d688da39d3f5afc3119bd4aa4489d66" ns2:_="" ns3:_="">
     <xsd:import namespace="8b623939-84f8-4901-a345-0989bf357138"/>
@@ -37073,26 +37066,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ECB928AA-0B0F-4C64-A727-7863FE0F4C5E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="8b623939-84f8-4901-a345-0989bf357138"/>
-    <ds:schemaRef ds:uri="36cbcfc3-de88-4d71-8c48-8bd741d1975c"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{89369AF3-E861-4526-BB65-44B203ABE5A3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8b623939-84f8-4901-a345-0989bf357138">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="36cbcfc3-de88-4d71-8c48-8bd741d1975c" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{374B0635-F594-4EE4-9E9D-0BE7BCE3B064}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -37109,4 +37103,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{89369AF3-E861-4526-BB65-44B203ABE5A3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ECB928AA-0B0F-4C64-A727-7863FE0F4C5E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="8b623939-84f8-4901-a345-0989bf357138"/>
+    <ds:schemaRef ds:uri="36cbcfc3-de88-4d71-8c48-8bd741d1975c"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>